--- a/Documentação/Product-Backlog Projeto Individual.xlsx
+++ b/Documentação/Product-Backlog Projeto Individual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enric\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enric\Downloads\Projeto-Individual\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0DB76E-1E63-48EF-ADB9-CC8555C6F5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C363C14-938C-4690-B9AD-B90A82CDDBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86EC4B69-2220-4D06-BEF8-1AFDD423AC45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Prioridade</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Banco de Dados Físico</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Essencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essencial </t>
   </si>
 </sst>
 </file>
@@ -287,15 +287,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,6 +304,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,320 +636,366 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="5" customWidth="1"/>
     <col min="3" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
